--- a/parameter_files/base/sigmas.xlsx
+++ b/parameter_files/base/sigmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{213C1287-CCF1-4C2B-88AC-BB4CBBD8C985}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -602,46 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -651,30 +611,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -797,48 +735,40 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1191,21 +1121,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,158 +1144,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="3"/>
+      <c r="N2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="K3">
@@ -1377,23 +1272,18 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4"/>
       <c r="U3">
         <v>0.5</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AI3" s="5"/>
     </row>
     <row r="4" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
       <c r="O4">
@@ -1402,23 +1292,18 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="4"/>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="AF4">
         <v>2</v>
       </c>
-      <c r="AI4" s="5"/>
     </row>
     <row r="5" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>1</v>
       </c>
       <c r="O5">
@@ -1427,20 +1312,15 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
       <c r="AF5">
         <v>1</v>
       </c>
-      <c r="AI5" s="5"/>
     </row>
     <row r="6" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>2</v>
       </c>
       <c r="O6">
@@ -1449,91 +1329,44 @@
       <c r="P6">
         <v>2</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
       <c r="AF6">
         <v>2</v>
       </c>
-      <c r="AI6" s="5"/>
     </row>
     <row r="7" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
-      <c r="AI7" s="5"/>
     </row>
     <row r="8" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="8"/>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
       <c r="C10">
         <v>2</v>
       </c>
@@ -1546,7 +1379,6 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="O10">
         <v>1</v>
       </c>
@@ -1558,21 +1390,17 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4"/>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="H12" s="5"/>
       <c r="J12">
         <v>1</v>
       </c>
@@ -1584,11 +1412,9 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="H13" s="5"/>
       <c r="K13">
         <v>2</v>
       </c>
@@ -1597,13 +1423,12 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="H14" s="5"/>
       <c r="M14">
         <v>1</v>
       </c>
@@ -1618,10 +1443,9 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4"/>
       <c r="C15">
         <v>1</v>
       </c>
@@ -1634,7 +1458,6 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="M15">
         <v>1</v>
       </c>
@@ -1643,309 +1466,191 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="H16" s="5"/>
       <c r="M16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
       <c r="W17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="3"/>
+      <c r="T18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="R19" s="4"/>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
         <v>2</v>
       </c>
-      <c r="AI19" s="5"/>
     </row>
     <row r="20" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="R20" s="4"/>
-      <c r="AI20" s="5"/>
     </row>
     <row r="21" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="H21" s="5"/>
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="R21" s="4"/>
       <c r="S21">
         <v>2</v>
       </c>
-      <c r="AI21" s="5"/>
     </row>
     <row r="22" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="H22" s="5"/>
       <c r="L22">
         <v>2</v>
       </c>
-      <c r="R22" s="4"/>
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="R23" s="4"/>
-      <c r="AI23" s="5"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="H24" s="5"/>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
-      <c r="R24" s="4"/>
       <c r="AC24">
         <v>2</v>
       </c>
       <c r="AH24">
         <v>1</v>
       </c>
-      <c r="AI24" s="5"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="R25" s="4"/>
-      <c r="AI25" s="5"/>
     </row>
     <row r="26" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="R26" s="4"/>
-      <c r="AI26" s="5"/>
     </row>
     <row r="27" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4"/>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="H27" s="5"/>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="O27">
         <v>2</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="R28" s="4"/>
-      <c r="AI28" s="5"/>
     </row>
     <row r="29" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="R29" s="4"/>
-      <c r="AI29" s="5"/>
     </row>
     <row r="30" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="R30" s="4"/>
-      <c r="AI30" s="5"/>
     </row>
     <row r="31" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="R31" s="4"/>
       <c r="AD31">
         <v>0.5</v>
       </c>
-      <c r="AI31" s="5"/>
     </row>
     <row r="32" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="H32" s="5"/>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="O32">
         <v>2</v>
       </c>
-      <c r="R32" s="4"/>
       <c r="AD32">
         <v>0.5</v>
       </c>
       <c r="AH32">
         <v>1</v>
       </c>
-      <c r="AI32" s="5"/>
     </row>
     <row r="33" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="H33" s="5"/>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="AI33" s="5"/>
     </row>
     <row r="34" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="R34" s="4"/>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="AF34">
         <v>1</v>
       </c>
-      <c r="AI34" s="5">
+      <c r="AI34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="8"/>
+      <c r="AH35">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
